--- a/iepg-data-calculation-engine/test/test-excel_utils.xlsx
+++ b/iepg-data-calculation-engine/test/test-excel_utils.xlsx
@@ -5,30 +5,55 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="test" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Test 0" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Test 1" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Test 2" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>d</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>NL</t>
+  </si>
+  <si>
+    <t>NZ</t>
+  </si>
+  <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>PT</t>
+  </si>
+  <si>
+    <t>BE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt formatCode="GENERAL" numFmtId="164"/>
-    <numFmt formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;" numFmtId="165"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <name val="Arial"/>
       <charset val="1"/>
@@ -55,16 +80,30 @@
       <name val="Arial"/>
       <charset val="1"/>
       <family val="2"/>
+      <b val="true"/>
       <color rgb="00000000"/>
-      <sz val="13"/>
+      <sz val="15"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <color rgb="00000000"/>
+      <sz val="15"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000CCCC"/>
+        <bgColor rgb="0033CCCC"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -101,10 +140,15 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0"/>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="4" numFmtId="164" xfId="0">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
@@ -114,6 +158,66 @@
     <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
     <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -122,118 +226,321 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100">
-      <selection activeCell="A9" activeCellId="0" pane="topLeft" sqref="A9"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100">
+      <selection activeCell="E9" activeCellId="0" pane="topLeft" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="35.3019607843137"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.9490196078431"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="2" width="16.9490196078431"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="2" width="35.4823529411765"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.45" outlineLevel="0" r="1">
-      <c r="A1" s="1" t="n">
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="30.9" outlineLevel="0" r="1" s="1">
+      <c r="B1" s="1" t="n">
+        <v>2011</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>2016</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="30.9" outlineLevel="0" r="2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B1" s="2"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.45" outlineLevel="0" r="2">
+      <c r="C2" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="30.9" outlineLevel="0" r="3">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="30.9" outlineLevel="0" r="4">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="30.9" outlineLevel="0" r="5">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="30.9" outlineLevel="0" r="6">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="30.9" outlineLevel="0" r="7">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="30.9" outlineLevel="0" r="8">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.45" outlineLevel="0" r="9"/>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.45" outlineLevel="0" r="10"/>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.45" outlineLevel="0" r="11"/>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.45" outlineLevel="0" r="12"/>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.45" outlineLevel="0" r="13"/>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.45" outlineLevel="0" r="14"/>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.45" outlineLevel="0" r="15"/>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.45" outlineLevel="0" r="16"/>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.45" outlineLevel="0" r="17"/>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.45" outlineLevel="0" r="18"/>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.45" outlineLevel="0" r="19"/>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.45" outlineLevel="0" r="20"/>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.45" outlineLevel="0" r="21"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100">
+      <selection activeCell="C16" activeCellId="0" pane="topLeft" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="22.3411764705882"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="2" width="22.3411764705882"/>
+  </cols>
+  <sheetData>
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="30.9" outlineLevel="0" r="1" s="1">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="30.9" outlineLevel="0" r="2">
       <c r="A2" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.45" outlineLevel="0" r="3">
+        <v>1990</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>789789789</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>32342342</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="30.9" outlineLevel="0" r="3">
       <c r="A3" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.45" outlineLevel="0" r="4">
+        <v>1991</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>8797897</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="30.9" outlineLevel="0" r="4">
       <c r="A4" s="1" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.45" outlineLevel="0" r="5">
+        <v>1994</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>2645</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>89789789</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>34234234</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="30.9" outlineLevel="0" r="5">
       <c r="A5" s="1" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.45" outlineLevel="0" r="6">
+        <v>1997</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>8789789</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>89789</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="30.9" outlineLevel="0" r="6">
       <c r="A6" s="1" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.45" outlineLevel="0" r="7">
+        <v>2000</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>564564</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>546489</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>234234234</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="30.9" outlineLevel="0" r="7">
       <c r="A7" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.45" outlineLevel="0" r="8">
+        <v>2011</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>89789</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>7897897</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>234234234</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="30.9" outlineLevel="0" r="8">
       <c r="A8" s="1" t="n">
-        <v>8</v>
+        <v>2012</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>564564</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.45" outlineLevel="0" r="9">
       <c r="A9" s="1" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.45" outlineLevel="0" r="10">
-      <c r="A10" s="1" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.45" outlineLevel="0" r="11">
-      <c r="A11" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.45" outlineLevel="0" r="12">
-      <c r="A12" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.45" outlineLevel="0" r="13">
-      <c r="A13" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.45" outlineLevel="0" r="14">
-      <c r="A14" s="1" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.45" outlineLevel="0" r="15">
-      <c r="A15" s="1" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.45" outlineLevel="0" r="16">
-      <c r="A16" s="1" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.45" outlineLevel="0" r="17">
-      <c r="A17" s="1" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.45" outlineLevel="0" r="18">
-      <c r="A18" s="1" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.45" outlineLevel="0" r="19">
-      <c r="A19" s="1" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.45" outlineLevel="0" r="20">
-      <c r="A20" s="1" t="n">
-        <v>1</v>
+        <v>2013</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>34234234</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>34234234234</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.45" outlineLevel="0" r="10"/>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.45" outlineLevel="0" r="11"/>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.45" outlineLevel="0" r="12"/>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.45" outlineLevel="0" r="13"/>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.45" outlineLevel="0" r="14"/>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.45" outlineLevel="0" r="15"/>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.45" outlineLevel="0" r="16"/>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.45" outlineLevel="0" r="17"/>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.45" outlineLevel="0" r="18"/>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.45" outlineLevel="0" r="19"/>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.45" outlineLevel="0" r="20"/>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.45" outlineLevel="0" r="21"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100">
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5764705882353"/>
+  </cols>
+  <sheetData>
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="33" outlineLevel="0" r="1" s="3">
+      <c r="A1" s="3" t="n">
+        <v>34</v>
+      </c>
+      <c r="B1" s="3" t="n">
+        <v>231</v>
+      </c>
+      <c r="C1" s="3" t="n">
+        <v>221</v>
+      </c>
+      <c r="D1" s="3" t="n">
+        <v>442</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="33" outlineLevel="0" r="2" s="3">
+      <c r="A2" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>31</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>222</v>
       </c>
     </row>
   </sheetData>
